--- a/rpi/default_profiles/12_on_12_off.xlsx
+++ b/rpi/default_profiles/12_on_12_off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave646/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B2473-BE96-6449-AC48-97C851AC00E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2039A6-AC1E-9946-BBB1-CD8878C71350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31760" yWindow="-160" windowWidth="26100" windowHeight="16840" xr2:uid="{DE3C112F-27B3-434E-943A-F435A4ED6234}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6E5291-E72C-E349-9B03-F2E10FCFDE42}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,151 +448,144 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="B3" s="3">
-        <f>ROUND(MAX(0,SIN((15/60/24)*2*PI()))*100,0)</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f>1*60/60/24</f>
+        <f>A2+60/60/24</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B4" s="3">
-        <f>ROUND(MAX(0,SIN((A4-$A$2)*2*PI()))*100,0)</f>
+        <f t="shared" ref="B4:B16" si="0">ROUND(MAX(0,SIN((A4)*2*PI())*100),0)</f>
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A16" si="0">A4+60/60/24</f>
+        <f t="shared" ref="A5:A15" si="1">A4+60/60/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B17" si="1">ROUND(MAX(0,SIN((A5-$A$2)*2*PI()))*100,0)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20833333333333331</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24999999999999997</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45833333333333337</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.99998842592592596</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>0.99998842592592596</v>
-      </c>
-      <c r="B17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
@@ -636,7 +629,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -661,10 +654,6 @@
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
